--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moata\source\repos\SW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD4B75-33B8-4457-9A61-1858EEDD3861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB79A5-79DC-4F5D-BC04-78F4BA503E16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Iteams</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Ehab</t>
   </si>
 </sst>
 </file>
@@ -429,16 +432,16 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -468,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -476,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -484,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -495,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -503,15 +506,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -519,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -527,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -535,7 +541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -543,7 +549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB79A5-79DC-4F5D-BC04-78F4BA503E16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281DEA7E-58EE-4F1A-9756-F8D11F2035F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281DEA7E-58EE-4F1A-9756-F8D11F2035F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF417129-31CE-49F8-89B5-D68D5C6C30AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Iteams</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Ehab</t>
+  </si>
+  <si>
+    <t>ehab</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,6 +481,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF417129-31CE-49F8-89B5-D68D5C6C30AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6704A-2DEE-43AA-85C7-6571419729FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Iteams</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>Cost</t>
-  </si>
-  <si>
-    <t>Ehab</t>
-  </si>
-  <si>
-    <t>ehab</t>
   </si>
 </sst>
 </file>
@@ -435,7 +429,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -520,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6704A-2DEE-43AA-85C7-6571419729FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF801E8-ACB0-4EEB-B240-A1D60874EA21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Iteams</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Ehab</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,6 +508,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karim\Documents\GitHub\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF801E8-ACB0-4EEB-B240-A1D60874EA21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FBEA97-5102-4BC7-B87C-9983659F706C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Iteams</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Ehab</t>
+  </si>
+  <si>
+    <t>karim</t>
   </si>
 </sst>
 </file>
@@ -432,16 +435,16 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -471,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -482,15 +485,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -501,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -512,7 +518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -523,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -531,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -539,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -547,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -555,7 +561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karim\Documents\GitHub\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FBEA97-5102-4BC7-B87C-9983659F706C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6E8D6-7451-4012-8467-05B49A7FFEB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Iteams</t>
   </si>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,6 +560,9 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karim\Documents\GitHub\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6E8D6-7451-4012-8467-05B49A7FFEB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C71C0B-FCFA-4924-8D0F-19989544048B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Iteams</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>karim</t>
+  </si>
+  <si>
+    <t>moutaz</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,6 +574,9 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karim\Documents\GitHub\SW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moata\source\repos\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C71C0B-FCFA-4924-8D0F-19989544048B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32C43D-2579-454E-BC92-42F12EC71B70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>karim</t>
   </si>
   <si>
-    <t>moutaz</t>
+    <t>Moataz</t>
   </si>
 </sst>
 </file>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moata\source\repos\SW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32C43D-2579-454E-BC92-42F12EC71B70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A9269-6F20-4F83-BB60-DF78E7867365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Iteams</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Moataz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> component lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>additive</t>
   </si>
 </sst>
 </file>
@@ -435,19 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -466,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,7 +508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -510,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -521,7 +530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -532,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -540,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -548,15 +557,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -566,8 +581,11 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A9269-6F20-4F83-BB60-DF78E7867365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F0726-527B-458F-B72E-DE8CBACFA455}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,13 +447,13 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F0726-527B-458F-B72E-DE8CBACFA455}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E4F89-8B8B-44E7-9824-A9B3BE09C620}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Iteams</t>
   </si>
@@ -86,13 +86,10 @@
     <t>Moataz</t>
   </si>
   <si>
-    <t xml:space="preserve"> component lecture</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>additive</t>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -447,7 +444,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,6 +545,9 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -556,6 +556,9 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -565,10 +568,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -582,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moata\source\repos\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E4F89-8B8B-44E7-9824-A9B3BE09C620}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC489C-F599-4E8B-ABFB-1396B9A0C8B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Iteams</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>process</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>Architecture design</t>
@@ -444,16 +441,16 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,120 +477,120 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moata\source\repos\SW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC489C-F599-4E8B-ABFB-1396B9A0C8B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EE69C-1B01-494F-8019-E78CE67DC46C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Iteams</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Stackholder</t>
   </si>
   <si>
-    <t>Youssef</t>
-  </si>
-  <si>
     <t>View &amp; viewpoint</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
   </si>
   <si>
     <t>Cost</t>
-  </si>
-  <si>
-    <t>Ehab</t>
-  </si>
-  <si>
-    <t>karim</t>
   </si>
   <si>
     <t>Moataz</t>
@@ -441,16 +432,16 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -466,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -502,7 +493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -510,87 +501,87 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ITEMS TO FINISH.xlsx
+++ b/ITEMS TO FINISH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Ehab\Desktop\SW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moata\source\repos\SW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EE69C-1B01-494F-8019-E78CE67DC46C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944E2A6-4310-4CD6-84C1-C33BAB8EF59E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Iteams</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Cost</t>
-  </si>
-  <si>
-    <t>Moataz</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -432,16 +429,16 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -468,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -479,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -490,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -501,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -512,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -523,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -534,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -545,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -556,10 +553,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -567,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -581,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
